--- a/ByHandInterpolation.xlsx
+++ b/ByHandInterpolation.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="10515" windowHeight="6210"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="10515" windowHeight="6210" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="TriLin" sheetId="1" r:id="rId1"/>
+    <sheet name="TrilinNew" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="68">
   <si>
     <t>X1</t>
   </si>
@@ -100,6 +101,126 @@
   </si>
   <si>
     <t>Trilinear</t>
+  </si>
+  <si>
+    <t>x0</t>
+  </si>
+  <si>
+    <t>x1</t>
+  </si>
+  <si>
+    <t>y0</t>
+  </si>
+  <si>
+    <t>y1</t>
+  </si>
+  <si>
+    <t>z0</t>
+  </si>
+  <si>
+    <t>z1</t>
+  </si>
+  <si>
+    <t>x2</t>
+  </si>
+  <si>
+    <t>y2</t>
+  </si>
+  <si>
+    <t>z2</t>
+  </si>
+  <si>
+    <t>x12</t>
+  </si>
+  <si>
+    <t>x20</t>
+  </si>
+  <si>
+    <t>y12</t>
+  </si>
+  <si>
+    <t>y20</t>
+  </si>
+  <si>
+    <t>z12</t>
+  </si>
+  <si>
+    <t>z20</t>
+  </si>
+  <si>
+    <t>Norm</t>
+  </si>
+  <si>
+    <t>Na</t>
+  </si>
+  <si>
+    <t>Nb</t>
+  </si>
+  <si>
+    <t>Nc</t>
+  </si>
+  <si>
+    <t>Nd</t>
+  </si>
+  <si>
+    <t>Ne</t>
+  </si>
+  <si>
+    <t>Nf</t>
+  </si>
+  <si>
+    <t>Ng</t>
+  </si>
+  <si>
+    <t>Nh</t>
+  </si>
+  <si>
+    <t>Interpolated</t>
+  </si>
+  <si>
+    <t>function</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>Calculated</t>
+  </si>
+  <si>
+    <t>0 0 0</t>
+  </si>
+  <si>
+    <t>0 0 1</t>
+  </si>
+  <si>
+    <t>0 1 0</t>
+  </si>
+  <si>
+    <t>0 1 1</t>
+  </si>
+  <si>
+    <t>1 0 0</t>
+  </si>
+  <si>
+    <t>1 0 1</t>
+  </si>
+  <si>
+    <t>1 1 0</t>
+  </si>
+  <si>
+    <t>x y z</t>
+  </si>
+  <si>
+    <t>Interpolation</t>
+  </si>
+  <si>
+    <t>delta</t>
   </si>
 </sst>
 </file>
@@ -109,7 +230,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,8 +238,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -143,8 +272,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -152,11 +293,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -165,6 +334,21 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -217,7 +401,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$F$27:$F$32</c:f>
+              <c:f>TriLin!$F$27:$F$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -244,7 +428,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$G$27:$G$32</c:f>
+              <c:f>TriLin!$G$27:$G$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -279,7 +463,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$F$27:$F$32</c:f>
+              <c:f>TriLin!$F$27:$F$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -306,7 +490,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$H$27:$H$32</c:f>
+              <c:f>TriLin!$H$27:$H$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -341,11 +525,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="162078080"/>
-        <c:axId val="161824128"/>
+        <c:axId val="111217280"/>
+        <c:axId val="111223168"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="162078080"/>
+        <c:axId val="111217280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -356,12 +540,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="161824128"/>
+        <c:crossAx val="111223168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="161824128"/>
+        <c:axId val="111223168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="3.5"/>
@@ -374,7 +558,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="162078080"/>
+        <c:crossAx val="111217280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -389,6 +573,256 @@
           <c:y val="0.67474763961905293"/>
           <c:w val="0.12574026619453632"/>
           <c:h val="9.4643998560886025E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10678018372703413"/>
+          <c:y val="2.8252405949256341E-2"/>
+          <c:w val="0.82478171478565176"/>
+          <c:h val="0.8326195683872849"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>TrilinNew!$G$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Calculated</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>TrilinNew!$F$34:$F$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>TrilinNew!$G$34:$G$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.8500000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.375</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.125</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>TrilinNew!$H$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Trilinear</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>TrilinNew!$F$34:$F$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>TrilinNew!$H$34:$H$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.8500000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.375</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.125</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="111252608"/>
+        <c:axId val="111254144"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="111252608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="111254144"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="111254144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="111252608"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.72983694111406805"/>
+          <c:y val="0.67474763961905293"/>
+          <c:w val="0.17899470406435883"/>
+          <c:h val="0.14286748777342731"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -429,6 +863,43 @@
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="Chart 2"/>
         <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>109536</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -734,7 +1205,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+    <sheetView topLeftCell="B22" workbookViewId="0">
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
@@ -1145,13 +1616,1256 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A3:P66"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="I20" workbookViewId="0">
+      <selection activeCell="P37" sqref="P37"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F3" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="G3" s="11"/>
+      <c r="H3" s="5"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B4" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5">
+        <f>B15</f>
+        <v>3.5</v>
+      </c>
+      <c r="F5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5">
+        <f>B16</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="2">
+        <f>B23</f>
+        <v>4</v>
+      </c>
+      <c r="F6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6">
+        <f>B20</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="2">
+        <f>B27</f>
+        <v>4.5</v>
+      </c>
+      <c r="F7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7">
+        <f>B17</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="2">
+        <f>B31</f>
+        <v>5</v>
+      </c>
+      <c r="F8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8">
+        <f>B21</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="2">
+        <f>B35</f>
+        <v>5.5</v>
+      </c>
+      <c r="F9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9">
+        <f>B18</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="2">
+        <f>B39</f>
+        <v>6</v>
+      </c>
+      <c r="F10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10">
+        <f>B22</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="2">
+        <f>B43</f>
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12">
+        <f>B19</f>
+        <v>7</v>
+      </c>
+      <c r="F12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12">
+        <f>$G6-K34</f>
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <f>$G6-L34</f>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="I12">
+        <f>$G6-M34</f>
+        <v>0.75</v>
+      </c>
+      <c r="J12">
+        <f>$G6-N34</f>
+        <v>0.5</v>
+      </c>
+      <c r="K12">
+        <f>$G6-O34</f>
+        <v>0.25</v>
+      </c>
+      <c r="L12">
+        <f>$G6-P34</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F13" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13">
+        <f>K34-$G5</f>
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <f>L34-$G5</f>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="I13">
+        <f>M34-$G5</f>
+        <v>0.25</v>
+      </c>
+      <c r="J13">
+        <f>N34-$G5</f>
+        <v>0.5</v>
+      </c>
+      <c r="K13">
+        <f>O34-$G5</f>
+        <v>0.75</v>
+      </c>
+      <c r="L13">
+        <f>P34-$G5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F14" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14">
+        <f>$G8-K35</f>
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <f>$G8-L35</f>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="I14">
+        <f>$G8-M35</f>
+        <v>0.75</v>
+      </c>
+      <c r="J14">
+        <f>$G8-N35</f>
+        <v>0.5</v>
+      </c>
+      <c r="K14">
+        <f>$G8-O35</f>
+        <v>0.25</v>
+      </c>
+      <c r="L14">
+        <f>$G8-P35</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="8">
+        <f>$D$16*B16+$D$17*B17+$D$18*B18</f>
+        <v>3.5</v>
+      </c>
+      <c r="F15" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15">
+        <f>K35-$G7</f>
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <f>L35-$G7</f>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="I15">
+        <f>M35-$G7</f>
+        <v>0.25</v>
+      </c>
+      <c r="J15">
+        <f>N35-$G7</f>
+        <v>0.5</v>
+      </c>
+      <c r="K15">
+        <f>O35-$G7</f>
+        <v>0.75</v>
+      </c>
+      <c r="L15">
+        <f>P35-$G7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="8">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="7">
+        <f>2</f>
+        <v>2</v>
+      </c>
+      <c r="F16" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16">
+        <f>$G10-K36</f>
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <f>$G10-L36</f>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="I16">
+        <f>$G10-M36</f>
+        <v>0.75</v>
+      </c>
+      <c r="J16">
+        <f>$G10-N36</f>
+        <v>0.5</v>
+      </c>
+      <c r="K16">
+        <f>$G10-O36</f>
+        <v>0.25</v>
+      </c>
+      <c r="L16">
+        <f>$G10-P36</f>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="8">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="7">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="F17" t="s">
+        <v>42</v>
+      </c>
+      <c r="G17">
+        <f>K36-$G9</f>
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <f>L36-$G9</f>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="I17">
+        <f>M36-$G9</f>
+        <v>0.25</v>
+      </c>
+      <c r="J17">
+        <f>N36-$G9</f>
+        <v>0.5</v>
+      </c>
+      <c r="K17">
+        <f>O36-$G9</f>
+        <v>0.75</v>
+      </c>
+      <c r="L17">
+        <f>P36-$G9</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="8">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="7">
+        <f>0.5</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="8">
+        <f>$D$16*B20+$D$17*B21+$D$18*B22</f>
+        <v>7</v>
+      </c>
+      <c r="F19" t="s">
+        <v>43</v>
+      </c>
+      <c r="G19">
+        <f>($G6-$G5)*($G8-$G7)*($G10-$G9)</f>
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <f>($G6-$G5)*($G8-$G7)*($G10-$G9)</f>
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <f>($G6-$G5)*($G8-$G7)*($G10-$G9)</f>
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <f>($G6-$G5)*($G8-$G7)*($G10-$G9)</f>
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <f>($G6-$G5)*($G8-$G7)*($G10-$G9)</f>
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <f>($G6-$G5)*($G8-$G7)*($G10-$G9)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="8">
+        <v>2</v>
+      </c>
+      <c r="F21" t="s">
+        <v>44</v>
+      </c>
+      <c r="G21">
+        <f>$G12*$G14*$G17/$G19</f>
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <f>H12*H14*H17/H19</f>
+        <v>8.1000000000000058E-2</v>
+      </c>
+      <c r="I21">
+        <f>I12*I14*I17/I19</f>
+        <v>0.140625</v>
+      </c>
+      <c r="J21">
+        <f>J12*J14*J17/J19</f>
+        <v>0.125</v>
+      </c>
+      <c r="K21">
+        <f>K12*K14*K17/K19</f>
+        <v>4.6875E-2</v>
+      </c>
+      <c r="L21">
+        <f>L12*L14*L17/L19</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="8">
+        <v>2</v>
+      </c>
+      <c r="F22" t="s">
+        <v>45</v>
+      </c>
+      <c r="G22">
+        <f>$G12*$G15*$G17/$G19</f>
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <f>H12*H15*H17/H19</f>
+        <v>9.0000000000000149E-3</v>
+      </c>
+      <c r="I22">
+        <f>I12*I15*I17/I19</f>
+        <v>4.6875E-2</v>
+      </c>
+      <c r="J22">
+        <f>J12*J15*J17/J19</f>
+        <v>0.125</v>
+      </c>
+      <c r="K22">
+        <f>K12*K15*K17/K19</f>
+        <v>0.140625</v>
+      </c>
+      <c r="L22">
+        <f>L12*L15*L17/L19</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="8">
+        <f>$D$16*B24+$D$17*B25+$D$18*B26</f>
+        <v>4</v>
+      </c>
+      <c r="F23" t="s">
+        <v>46</v>
+      </c>
+      <c r="G23">
+        <f>$G13*$G14*$G17/$G19</f>
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <f>H13*H14*H17/H19</f>
+        <v>9.0000000000000149E-3</v>
+      </c>
+      <c r="I23">
+        <f>I13*I14*I17/I19</f>
+        <v>4.6875E-2</v>
+      </c>
+      <c r="J23">
+        <f>J13*J14*J17/J19</f>
+        <v>0.125</v>
+      </c>
+      <c r="K23">
+        <f>K13*K14*K17/K19</f>
+        <v>0.140625</v>
+      </c>
+      <c r="L23">
+        <f>L13*L14*L17/L19</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="8">
+        <f>B16</f>
+        <v>1</v>
+      </c>
+      <c r="F24" t="s">
+        <v>47</v>
+      </c>
+      <c r="G24">
+        <f>$G13*$G15*$G17/$G19</f>
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <f>H13*H15*H17/H19</f>
+        <v>1.0000000000000026E-3</v>
+      </c>
+      <c r="I24">
+        <f>I13*I15*I17/I19</f>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="J24">
+        <f>J13*J15*J17/J19</f>
+        <v>0.125</v>
+      </c>
+      <c r="K24">
+        <f>K13*K15*K17/K19</f>
+        <v>0.421875</v>
+      </c>
+      <c r="L24">
+        <f>L13*L15*L17/L19</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="8">
+        <f>B17</f>
+        <v>1</v>
+      </c>
+      <c r="F25" t="s">
+        <v>48</v>
+      </c>
+      <c r="G25">
+        <f>$G12*$G14*$G16/$G19</f>
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <f>H12*H14*H16/H19</f>
+        <v>0.72899999999999976</v>
+      </c>
+      <c r="I25">
+        <f>I12*I14*I16/I19</f>
+        <v>0.421875</v>
+      </c>
+      <c r="J25">
+        <f>J12*J14*J16/J19</f>
+        <v>0.125</v>
+      </c>
+      <c r="K25">
+        <f>K12*K14*K16/K19</f>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="L25">
+        <f>L12*L14*L16/L19</f>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="8">
+        <f>B22</f>
+        <v>2</v>
+      </c>
+      <c r="F26" t="s">
+        <v>49</v>
+      </c>
+      <c r="G26">
+        <f>$G12*$G15*$G16/$G19</f>
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <f>H12*H15*H16/H19</f>
+        <v>8.1000000000000058E-2</v>
+      </c>
+      <c r="I26">
+        <f>I12*I15*I16/I19</f>
+        <v>0.140625</v>
+      </c>
+      <c r="J26">
+        <f>J12*J15*J16/J19</f>
+        <v>0.125</v>
+      </c>
+      <c r="K26">
+        <f>K12*K15*K16/K19</f>
+        <v>4.6875E-2</v>
+      </c>
+      <c r="L26">
+        <f>L12*L15*L16/L19</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" s="8">
+        <f>$D$16*B28+$D$17*B29+$D$18*B30</f>
+        <v>4.5</v>
+      </c>
+      <c r="F27" t="s">
+        <v>50</v>
+      </c>
+      <c r="G27">
+        <f>$G13*$G14*$G16/$G19</f>
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <f>H13*H14*H16/H19</f>
+        <v>8.1000000000000058E-2</v>
+      </c>
+      <c r="I27">
+        <f>I13*I14*I16/I19</f>
+        <v>0.140625</v>
+      </c>
+      <c r="J27">
+        <f>J13*J14*J16/J19</f>
+        <v>0.125</v>
+      </c>
+      <c r="K27">
+        <f>K13*K14*K16/K19</f>
+        <v>4.6875E-2</v>
+      </c>
+      <c r="L27">
+        <f>L13*L14*L16/L19</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="8">
+        <f>B16</f>
+        <v>1</v>
+      </c>
+      <c r="F28" t="s">
+        <v>51</v>
+      </c>
+      <c r="G28">
+        <f>$G13*$G15*$G16/$G19</f>
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <f>H13*H15*H16/H19</f>
+        <v>9.0000000000000149E-3</v>
+      </c>
+      <c r="I28">
+        <f>I13*I15*I16/I19</f>
+        <v>4.6875E-2</v>
+      </c>
+      <c r="J28">
+        <f>J13*J15*J16/J19</f>
+        <v>0.125</v>
+      </c>
+      <c r="K28">
+        <f>K13*K15*K16/K19</f>
+        <v>0.140625</v>
+      </c>
+      <c r="L28">
+        <f>L13*L15*L16/L19</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="8">
+        <f>B21</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="8">
+        <f>B18</f>
+        <v>1</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="G30" s="6">
+        <f>G21*$C6+G22*$C8+G23*$C10+G24*$C12+G25*$C5+G26*$C7+G27*$C9+G28*$C11</f>
+        <v>3.5</v>
+      </c>
+      <c r="H30" s="6">
+        <f>H21*$C6+H22*$C8+H23*$C10+H24*$C12+H25*$C5+H26*$C7+H27*$C9+H28*$C11</f>
+        <v>3.8500000000000005</v>
+      </c>
+      <c r="I30" s="6">
+        <f>I21*$C6+I22*$C8+I23*$C10+I24*$C12+I25*$C5+I26*$C7+I27*$C9+I28*$C11</f>
+        <v>4.375</v>
+      </c>
+      <c r="J30" s="6">
+        <f>J21*$C6+J22*$C8+J23*$C10+J24*$C12+J25*$C5+J26*$C7+J27*$C9+J28*$C11</f>
+        <v>5.25</v>
+      </c>
+      <c r="K30" s="6">
+        <f>K21*$C6+K22*$C8+K23*$C10+K24*$C12+K25*$C5+K26*$C7+K27*$C9+K28*$C11</f>
+        <v>6.125</v>
+      </c>
+      <c r="L30" s="14">
+        <f>L21*$C6+L22*$C8+L23*$C10+L24*$C12+L25*$C5+L26*$C7+L27*$C9+L28*$C11</f>
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B31" s="8">
+        <f>$D$16*B32+$D$17*B33+$D$18*B34</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B32" s="8">
+        <f>B16</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" s="8">
+        <f>B21</f>
+        <v>2</v>
+      </c>
+      <c r="F33" t="s">
+        <v>67</v>
+      </c>
+      <c r="G33" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="H33" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33">
+        <v>2</v>
+      </c>
+      <c r="M33">
+        <v>3</v>
+      </c>
+      <c r="N33">
+        <v>4</v>
+      </c>
+      <c r="O33">
+        <v>5</v>
+      </c>
+      <c r="P33">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A34" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" s="8">
+        <f>B22</f>
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <f>B15</f>
+        <v>3.5</v>
+      </c>
+      <c r="H34">
+        <f>G30</f>
+        <v>3.5</v>
+      </c>
+      <c r="J34" t="s">
+        <v>34</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <f>K34+0.1</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="M34">
+        <f>K34+0.25</f>
+        <v>1.25</v>
+      </c>
+      <c r="N34">
+        <f>K34+0.5</f>
+        <v>1.5</v>
+      </c>
+      <c r="O34">
+        <f>K34+0.75</f>
+        <v>1.75</v>
+      </c>
+      <c r="P34" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A35" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B35" s="8">
+        <f>$D$16*B36+$D$17*B37+$D$18*B38</f>
+        <v>5.5</v>
+      </c>
+      <c r="F35">
+        <v>0.1</v>
+      </c>
+      <c r="G35">
+        <f>B51</f>
+        <v>3.8500000000000005</v>
+      </c>
+      <c r="H35">
+        <f>H30</f>
+        <v>3.8500000000000005</v>
+      </c>
+      <c r="J35" t="s">
+        <v>35</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <f t="shared" ref="L35:L36" si="0">K35+0.1</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="M35">
+        <f t="shared" ref="M35:M36" si="1">K35+0.25</f>
+        <v>1.25</v>
+      </c>
+      <c r="N35">
+        <f t="shared" ref="N35:N36" si="2">K35+0.5</f>
+        <v>1.5</v>
+      </c>
+      <c r="O35">
+        <f t="shared" ref="O35:O36" si="3">K35+0.75</f>
+        <v>1.75</v>
+      </c>
+      <c r="P35" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A36" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B36" s="8">
+        <f>B20</f>
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>0.25</v>
+      </c>
+      <c r="G36">
+        <f>B55</f>
+        <v>4.375</v>
+      </c>
+      <c r="H36">
+        <f>I30</f>
+        <v>4.375</v>
+      </c>
+      <c r="J36" t="s">
+        <v>36</v>
+      </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="0"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="1"/>
+        <v>1.25</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="2"/>
+        <v>1.5</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="3"/>
+        <v>1.75</v>
+      </c>
+      <c r="P36" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A37" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B37" s="8">
+        <f>B17</f>
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>0.5</v>
+      </c>
+      <c r="G37">
+        <f>B63</f>
+        <v>5.25</v>
+      </c>
+      <c r="H37">
+        <f>J30</f>
+        <v>5.25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A38" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B38" s="8">
+        <f>B18</f>
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>0.75</v>
+      </c>
+      <c r="G38">
+        <f>B59</f>
+        <v>6.125</v>
+      </c>
+      <c r="H38">
+        <f>K30</f>
+        <v>6.125</v>
+      </c>
+      <c r="K38" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="L38" s="13">
+        <f>$D$16*L39+$D$17*L40+$D$18*L41</f>
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A39" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B39" s="8">
+        <f>$D$16*B40+$D$17*B41+$D$18*B42</f>
+        <v>6</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <f>B19</f>
+        <v>7</v>
+      </c>
+      <c r="H39">
+        <f>L30</f>
+        <v>6.5</v>
+      </c>
+      <c r="K39" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="L39" s="8">
+        <f>P34</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A40" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B40" s="8">
+        <f>B20</f>
+        <v>2</v>
+      </c>
+      <c r="K40" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="L40" s="8">
+        <f>P35</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A41" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B41" s="8">
+        <f>B17</f>
+        <v>1</v>
+      </c>
+      <c r="K41" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="L41" s="8">
+        <f>P36</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A42" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B42" s="8">
+        <f>B22</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A43" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B43" s="8">
+        <f>$D$16*B44+$D$17*B45+$D$18*B46</f>
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A44" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B44" s="8">
+        <f>B20</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A45" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B45" s="8">
+        <f>B21</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A46" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B46" s="8">
+        <f>B18</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A47" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B47" s="8">
+        <f>$D$16*B48+$D$17*B49+$D$18*B50</f>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A48" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B48" s="8">
+        <f>K34</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B49" s="8">
+        <f>K35</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B50" s="8">
+        <f>K36</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B51" s="8">
+        <f>$D$16*B52+$D$17*B53+$D$18*B54</f>
+        <v>3.8500000000000005</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B52" s="8">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B53" s="8">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B54" s="8">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B55" s="8">
+        <f>$D$16*B56+$D$17*B57+$D$18*B58</f>
+        <v>4.375</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B56" s="8">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B57" s="8">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B58" s="8">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B59" s="8">
+        <f>$D$16*B60+$D$17*B61+$D$18*B62</f>
+        <v>6.125</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B60" s="8">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B61" s="8">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B62" s="8">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B63" s="8">
+        <f>$D$16*B64+$D$17*B65+$D$18*B66</f>
+        <v>5.25</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B64" s="8">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B65" s="8">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B66" s="8">
+        <v>1.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F3:G3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1165,4 +2879,16 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ByHandInterpolation.xlsx
+++ b/ByHandInterpolation.xlsx
@@ -17,53 +17,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="68">
-  <si>
-    <t>X1</t>
-  </si>
-  <si>
-    <t>X0</t>
-  </si>
-  <si>
-    <t>Y0</t>
-  </si>
-  <si>
-    <t>Z0</t>
-  </si>
-  <si>
-    <t>Y1</t>
-  </si>
-  <si>
-    <t>Z1</t>
-  </si>
-  <si>
-    <t>F0</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="55">
   <si>
     <t>1 1 1</t>
   </si>
   <si>
-    <t>1 1 2</t>
-  </si>
-  <si>
-    <t>2 2 2</t>
-  </si>
-  <si>
-    <t>1 2 1</t>
-  </si>
-  <si>
-    <t>1 2 2</t>
-  </si>
-  <si>
-    <t>2 1 1</t>
-  </si>
-  <si>
-    <t>2 1 2</t>
-  </si>
-  <si>
-    <t>F1</t>
-  </si>
-  <si>
     <t>Xd</t>
   </si>
   <si>
@@ -79,9 +37,6 @@
     <t>C00</t>
   </si>
   <si>
-    <t>2 2 1</t>
-  </si>
-  <si>
     <t>C10</t>
   </si>
   <si>
@@ -97,9 +52,6 @@
     <t>C</t>
   </si>
   <si>
-    <t>Square</t>
-  </si>
-  <si>
     <t>Trilinear</t>
   </si>
   <si>
@@ -221,14 +173,24 @@
   </si>
   <si>
     <t>delta</t>
+  </si>
+  <si>
+    <t>X2</t>
+  </si>
+  <si>
+    <t>Y2</t>
+  </si>
+  <si>
+    <t>Z2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000000"/>
+    <numFmt numFmtId="169" formatCode="0.0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -247,7 +209,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -263,12 +225,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -327,14 +283,12 @@
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -343,12 +297,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -397,11 +353,19 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Square</c:v>
+            <c:strRef>
+              <c:f>TriLin!$G$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Calculated</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>TriLin!$F$27:$F$32</c:f>
+              <c:f>TriLin!$F$30:$F$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -428,27 +392,27 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>TriLin!$G$27:$G$32</c:f>
+              <c:f>TriLin!$G$30:$G$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.7320508075688772</c:v>
+                  <c:v>3.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.9052558883257653</c:v>
+                  <c:v>3.8500000000000005</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.1650635094610968</c:v>
+                  <c:v>4.375</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.598076211353316</c:v>
+                  <c:v>5.25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.0310889132455352</c:v>
+                  <c:v>6.125</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.4641016151377544</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -459,11 +423,24 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Trilinear</c:v>
+            <c:strRef>
+              <c:f>TriLin!$H$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Trilinear</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln w="22225">
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>TriLin!$F$27:$F$32</c:f>
+              <c:f>TriLin!$F$30:$F$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -490,27 +467,27 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>TriLin!$H$27:$H$32</c:f>
+              <c:f>TriLin!$H$30:$H$35</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.7320508075688772</c:v>
+                  <c:v>3.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.9423551478291619</c:v>
+                  <c:v>3.85</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.2400890074163007</c:v>
+                  <c:v>4.375</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.6930777063820206</c:v>
+                  <c:v>5.25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.0985656578333884</c:v>
+                  <c:v>6.125</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.4641016151377544</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -525,11 +502,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="111217280"/>
-        <c:axId val="111223168"/>
+        <c:axId val="95160960"/>
+        <c:axId val="95166848"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="111217280"/>
+        <c:axId val="95160960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -540,16 +517,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="111223168"/>
+        <c:crossAx val="95166848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="111223168"/>
+        <c:axId val="95166848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="3.5"/>
-          <c:min val="1.5"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -558,7 +533,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="111217280"/>
+        <c:crossAx val="95160960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -569,10 +544,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.72983694111406805"/>
-          <c:y val="0.67474763961905293"/>
-          <c:w val="0.12574026619453632"/>
-          <c:h val="9.4643998560886025E-2"/>
+          <c:x val="0.70025112985137217"/>
+          <c:y val="0.5848961349654187"/>
+          <c:w val="0.17307754430104522"/>
+          <c:h val="0.14277866888213064"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -762,7 +737,7 @@
                   <c:v>6.125</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.5</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -777,11 +752,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="111252608"/>
-        <c:axId val="111254144"/>
+        <c:axId val="95200384"/>
+        <c:axId val="95201920"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="111252608"/>
+        <c:axId val="95200384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -792,12 +767,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="111254144"/>
+        <c:crossAx val="95201920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="111254144"/>
+        <c:axId val="95201920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -808,7 +783,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="111252608"/>
+        <c:crossAx val="95200384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -849,15 +824,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>147636</xdr:rowOff>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>90486</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -883,16 +858,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>109536</xdr:rowOff>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>52386</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1203,408 +1178,1004 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:H40"/>
+  <dimension ref="A4:L66"/>
   <sheetViews>
-    <sheetView topLeftCell="B22" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B4" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5">
+        <f>B15</f>
+        <v>3.5</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" s="3">
+        <f>(G19-$B16)/($B20-$B16)</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="3">
+        <f>(H19-$B16)/($B20-$B16)</f>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="I5" s="3">
+        <f>(I19-$B16)/($B20-$B16)</f>
+        <v>0.25</v>
+      </c>
+      <c r="J5" s="3">
+        <f>(J19-$B16)/($B20-$B16)</f>
+        <v>0.5</v>
+      </c>
+      <c r="K5" s="3">
+        <f>(K19-$B16)/($B20-$B16)</f>
+        <v>0.75</v>
+      </c>
+      <c r="L5" s="3">
+        <f>(L19-$B16)/($B20-$B16)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="1">
+        <f>B23</f>
+        <v>4</v>
+      </c>
+      <c r="F6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" s="3">
+        <f>(G20-$B17)/($B21-$B17)</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="3">
+        <f>(H20-$B17)/($B21-$B17)</f>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="I6" s="3">
+        <f>(I20-$B17)/($B21-$B17)</f>
+        <v>0.25</v>
+      </c>
+      <c r="J6" s="3">
+        <f>(J20-$B17)/($B21-$B17)</f>
+        <v>0.5</v>
+      </c>
+      <c r="K6" s="3">
+        <f>(K20-$B17)/($B21-$B17)</f>
+        <v>0.75</v>
+      </c>
+      <c r="L6" s="3">
+        <f>(L20-$B17)/($B21-$B17)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="1">
+        <f>B27</f>
+        <v>4.5</v>
+      </c>
+      <c r="F7" t="s">
         <v>3</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G7" s="3">
+        <f>(G21-$B18)/($B22-$B18)</f>
         <v>0</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H7" s="3">
+        <f>(H21-$B18)/($B22-$B18)</f>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="I7" s="3">
+        <f>(I21-$B18)/($B22-$B18)</f>
+        <v>0.25</v>
+      </c>
+      <c r="J7" s="3">
+        <f>(J21-$B18)/($B22-$B18)</f>
+        <v>0.5</v>
+      </c>
+      <c r="K7" s="3">
+        <f>(K21-$B18)/($B22-$B18)</f>
+        <v>0.75</v>
+      </c>
+      <c r="L7" s="3">
+        <f>(L21-$B18)/($B22-$B18)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="1">
+        <f>B31</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="1">
+        <f>B35</f>
+        <v>5.5</v>
+      </c>
+      <c r="F9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="13">
+        <f>$C5*(1-G5)+$C9*(G5)</f>
+        <v>3.5</v>
+      </c>
+      <c r="H9" s="13">
+        <f>$C5*(1-H5)+$C9*(H5)</f>
+        <v>3.7</v>
+      </c>
+      <c r="I9" s="13">
+        <f>$C5*(1-I5)+$C9*(I5)</f>
         <v>4</v>
       </c>
-      <c r="H3" t="s">
+      <c r="J9" s="13">
+        <f>$C5*(1-J5)+$C9*(J5)</f>
+        <v>4.5</v>
+      </c>
+      <c r="K9" s="13">
+        <f>$C5*(1-K5)+$C9*(K5)</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-      <c r="F5" s="3">
+      <c r="L9" s="13">
+        <f>$C5*(1-L5)+$C9*(L5)</f>
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="1">
+        <f>B39</f>
+        <v>6</v>
+      </c>
+      <c r="F10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10">
+        <f>$C7*(1-G5)+$C11*G5</f>
+        <v>4.5</v>
+      </c>
+      <c r="H10">
+        <f>$C7*(1-H5)+$C11*H5</f>
+        <v>4.7</v>
+      </c>
+      <c r="I10">
+        <f>$C7*(1-I5)+$C11*I5</f>
+        <v>5</v>
+      </c>
+      <c r="J10">
+        <f>$C7*(1-J5)+$C11*J5</f>
+        <v>5.5</v>
+      </c>
+      <c r="K10">
+        <f>$C7*(1-K5)+$C11*K5</f>
+        <v>6</v>
+      </c>
+      <c r="L10">
+        <f>$C7*(1-L5)+$C11*L5</f>
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="1">
+        <f>B43</f>
+        <v>6.5</v>
+      </c>
+      <c r="F11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="13">
+        <f>$C6*(1-G5)+$C10*G5</f>
+        <v>4</v>
+      </c>
+      <c r="H11" s="13">
+        <f>$C6*(1-H5)+$C10*H5</f>
+        <v>4.2</v>
+      </c>
+      <c r="I11" s="13">
+        <f>$C6*(1-I5)+$C10*I5</f>
+        <v>4.5</v>
+      </c>
+      <c r="J11" s="13">
+        <f>$C6*(1-J5)+$C10*J5</f>
+        <v>5</v>
+      </c>
+      <c r="K11" s="13">
+        <f>$C6*(1-K5)+$C10*K5</f>
+        <v>5.5</v>
+      </c>
+      <c r="L11" s="13">
+        <f>$C6*(1-L5)+$C10*L5</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <f>B19</f>
+        <v>7</v>
+      </c>
+      <c r="F12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" s="13">
+        <f>$C8*(1-G5)+$C12*G5</f>
+        <v>5</v>
+      </c>
+      <c r="H12" s="13">
+        <f>$C8*(1-H5)+$C12*H5</f>
+        <v>5.2000000000000011</v>
+      </c>
+      <c r="I12" s="13">
+        <f>$C8*(1-I5)+$C12*I5</f>
+        <v>5.5</v>
+      </c>
+      <c r="J12" s="13">
+        <f>$C8*(1-J5)+$C12*J5</f>
+        <v>6</v>
+      </c>
+      <c r="K12" s="13">
+        <f>$C8*(1-K5)+$C12*K5</f>
+        <v>6.5</v>
+      </c>
+      <c r="L12" s="13">
+        <f>$C8*(1-L5)+$C12*L5</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F14" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="13">
+        <f>G9*(1-G6)+G10*G6</f>
+        <v>3.5</v>
+      </c>
+      <c r="H14" s="13">
+        <f>H9*(1-H6)+H10*H6</f>
+        <v>3.8</v>
+      </c>
+      <c r="I14" s="13">
+        <f>I9*(1-I6)+I10*I6</f>
+        <v>4.25</v>
+      </c>
+      <c r="J14" s="13">
+        <f>J9*(1-J6)+J10*J6</f>
+        <v>5</v>
+      </c>
+      <c r="K14" s="13">
+        <f>K9*(1-K6)+K10*K6</f>
+        <v>5.75</v>
+      </c>
+      <c r="L14" s="13">
+        <f>L9*(1-L6)+L10*L6</f>
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="6">
+        <f>$D$16*B16+$D$17*B17+$D$18*B18</f>
+        <v>3.5</v>
+      </c>
+      <c r="F15" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15">
+        <f>G11*(1-G6)+G12*G6</f>
+        <v>4</v>
+      </c>
+      <c r="H15">
+        <f>H11*(1-H6)+H12*H6</f>
+        <v>4.3000000000000007</v>
+      </c>
+      <c r="I15">
+        <f>I11*(1-I6)+I12*I6</f>
+        <v>4.75</v>
+      </c>
+      <c r="J15">
+        <f>J11*(1-J6)+J12*J6</f>
+        <v>5.5</v>
+      </c>
+      <c r="K15">
+        <f>K11*(1-K6)+K12*K6</f>
+        <v>6.25</v>
+      </c>
+      <c r="L15">
+        <f>L11*(1-L6)+L12*L6</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="6">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="5">
+        <f>2</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="6">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="5">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="F17" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="10">
+        <f>G14*(1-G7)+G15*G7</f>
+        <v>3.5</v>
+      </c>
+      <c r="H17" s="14">
+        <f>H14*(1-H7)+H15*H7</f>
+        <v>3.85</v>
+      </c>
+      <c r="I17" s="14">
+        <f>I14*(1-I7)+I15*I7</f>
+        <v>4.375</v>
+      </c>
+      <c r="J17" s="14">
+        <f>J14*(1-J7)+J15*J7</f>
+        <v>5.25</v>
+      </c>
+      <c r="K17" s="14">
+        <f>K14*(1-K7)+K15*K7</f>
+        <v>6.125</v>
+      </c>
+      <c r="L17" s="14">
+        <f>L14*(1-L7)+L15*L7</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="6">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="5">
+        <f>0.5</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="6">
+        <f>$D$16*B20+$D$17*B21+$D$18*B22</f>
+        <v>7</v>
+      </c>
+      <c r="F19" t="s">
+        <v>52</v>
+      </c>
+      <c r="G19" s="2">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I19">
+        <v>1.25</v>
+      </c>
+      <c r="J19">
         <v>1.5</v>
       </c>
-      <c r="G5" s="3">
+      <c r="K19">
+        <v>1.75</v>
+      </c>
+      <c r="L19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="6">
+        <v>2</v>
+      </c>
+      <c r="F20" t="s">
+        <v>53</v>
+      </c>
+      <c r="G20" s="2">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I20">
+        <v>1.25</v>
+      </c>
+      <c r="J20">
         <v>1.5</v>
       </c>
-      <c r="H5" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
+      <c r="K20">
+        <v>1.75</v>
+      </c>
+      <c r="L20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="6">
+        <v>2</v>
+      </c>
+      <c r="F21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G21" s="2">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I21">
+        <v>1.25</v>
+      </c>
+      <c r="J21">
+        <v>1.5</v>
+      </c>
+      <c r="K21">
+        <v>1.75</v>
+      </c>
+      <c r="L21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="6">
+        <f>$D$16*B24+$D$17*B25+$D$18*B26</f>
+        <v>4</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G23" s="10">
+        <f>$D$16*G24+$D$17*G25+$D$18*G26</f>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" s="6">
+        <f>B16</f>
+        <v>1</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G24" s="6">
+        <f>G19</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" s="6">
+        <f>B17</f>
+        <v>1</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G25" s="6">
+        <f>G20</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="6">
+        <f>B22</f>
+        <v>2</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G26" s="6">
+        <f>G21</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" s="6">
+        <f>$D$16*B28+$D$17*B29+$D$18*B30</f>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" s="6">
+        <f>B16</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29" s="6">
+        <f>B21</f>
+        <v>2</v>
+      </c>
+      <c r="G29" t="s">
+        <v>41</v>
+      </c>
+      <c r="H29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30" s="6">
+        <f>B18</f>
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <f>B15</f>
+        <v>3.5</v>
+      </c>
+      <c r="H30" s="13">
+        <f>G17</f>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" s="6">
+        <f>$D$16*B32+$D$17*B33+$D$18*B34</f>
+        <v>5</v>
+      </c>
+      <c r="F31">
+        <v>0.1</v>
+      </c>
+      <c r="G31">
+        <f>B51</f>
+        <v>3.8500000000000005</v>
+      </c>
+      <c r="H31" s="13">
+        <f>H17</f>
+        <v>3.85</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" s="6">
+        <f>B16</f>
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>0.25</v>
+      </c>
+      <c r="G32">
+        <f>B55</f>
+        <v>4.375</v>
+      </c>
+      <c r="H32" s="13">
+        <f>I17</f>
+        <v>4.375</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B33" s="6">
+        <f>B21</f>
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>0.5</v>
+      </c>
+      <c r="G33">
+        <f>B63</f>
+        <v>5.25</v>
+      </c>
+      <c r="H33" s="13">
+        <f>J17</f>
+        <v>5.25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B34" s="6">
+        <f>B22</f>
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>0.75</v>
+      </c>
+      <c r="G34">
+        <f>B59</f>
+        <v>6.125</v>
+      </c>
+      <c r="H34" s="13">
+        <f>K17</f>
+        <v>6.125</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" s="6">
+        <f>$D$16*B36+$D$17*B37+$D$18*B38</f>
+        <v>5.5</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <f>B19</f>
+        <v>7</v>
+      </c>
+      <c r="H35" s="13">
+        <f>L17</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36" s="6">
+        <f>B20</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B37" s="6">
+        <f>B17</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B38" s="6">
+        <f>B18</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39" s="6">
+        <f>$D$16*B40+$D$17*B41+$D$18*B42</f>
         <v>6</v>
       </c>
-      <c r="G9" t="s">
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B40" s="6">
+        <f>B20</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10">
-        <f>SQRT(B4^2+C4^2+D4^2)</f>
-        <v>1.7320508075688772</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="2">
-        <f>SQRT(B4^2+C4^2+D5^2)</f>
-        <v>2.4494897427831779</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="B41" s="6">
+        <f>B17</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B42" s="6">
+        <f>B22</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B43" s="6">
+        <f>$D$16*B44+$D$17*B45+$D$18*B46</f>
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B44" s="6">
+        <f>B20</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G11" t="s">
+      <c r="B45" s="6">
+        <f>B21</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="2">
-        <f>SQRT(B4^2+C5^2+D4^2)</f>
-        <v>2.4494897427831779</v>
-      </c>
-      <c r="F12" s="5">
-        <f>(F5-B4)/(B5-B4)</f>
-        <v>0.5</v>
-      </c>
-      <c r="G12" s="5">
-        <f>(G5-C4)/(C5-C4)</f>
-        <v>0.5</v>
-      </c>
-      <c r="H12" s="5">
-        <f>(H5-D4)/(D5-D4)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="2">
-        <f>SQRT(B4^2+C5^2+D5^2)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="2">
-        <f>SQRT(B5^2+C4^2+D4^2)</f>
-        <v>2.4494897427831779</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="B46" s="6">
+        <f>B18</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B47" s="6">
+        <f>$D$16*B48+$D$17*B49+$D$18*B50</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B48" s="6">
+        <f>K34</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G14" s="2">
-        <f>C10*(1-F12)+C14*(F12)</f>
-        <v>2.0907702751760278</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="2">
-        <f>SQRT(B5^2+C4^2+D5^2)</f>
-        <v>3</v>
-      </c>
-      <c r="F15" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15">
-        <f>C12*(1-F12)+C16*F12</f>
-        <v>2.7247448713915889</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+      <c r="B49" s="6">
+        <f>K35</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="2">
-        <f>SQRT(B5^2+C5^2+D4^2)</f>
-        <v>3</v>
-      </c>
-      <c r="F16" t="s">
-        <v>22</v>
-      </c>
-      <c r="G16">
-        <f>C11*(1-F12)+C15*F12</f>
-        <v>2.7247448713915889</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17">
-        <f>SQRT(B5^2+C5^2+D5^2)</f>
-        <v>3.4641016151377544</v>
-      </c>
-      <c r="F17" t="s">
-        <v>23</v>
-      </c>
-      <c r="G17">
-        <f>C13*(1-F12)+C17*F12</f>
-        <v>3.2320508075688772</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F19" t="s">
-        <v>24</v>
-      </c>
-      <c r="G19">
-        <f>G14*(1-G12)+G15*G12</f>
-        <v>2.4077575732838081</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C20">
-        <f>(C10+C17)/2</f>
-        <v>2.598076211353316</v>
-      </c>
-      <c r="F20" t="s">
+      <c r="B50" s="6">
+        <f>K36</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B51" s="6">
+        <f>$D$16*B52+$D$17*B53+$D$18*B54</f>
+        <v>3.8500000000000005</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G20">
-        <f>G16*(1-G12)+G17*G12</f>
-        <v>2.9783978394802331</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F22" t="s">
-        <v>25</v>
-      </c>
-      <c r="G22" s="1">
-        <f>G19*(1-H12)+G20*H12</f>
-        <v>3.549038105676658</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>1</v>
-      </c>
-      <c r="C26" t="s">
-        <v>2</v>
-      </c>
-      <c r="D26" t="s">
-        <v>3</v>
-      </c>
-      <c r="G26" t="s">
-        <v>26</v>
-      </c>
-      <c r="H26" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="4">
+      <c r="B52" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B53" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B54" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B55" s="6">
+        <f>$D$16*B56+$D$17*B57+$D$18*B58</f>
+        <v>4.375</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B56" s="6">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B57" s="6">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B58" s="6">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B59" s="6">
+        <f>$D$16*B60+$D$17*B61+$D$18*B62</f>
+        <v>6.125</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B60" s="6">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B61" s="6">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B62" s="6">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B63" s="6">
+        <f>$D$16*B64+$D$17*B65+$D$18*B66</f>
+        <v>5.25</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B64" s="6">
         <v>1.5</v>
       </c>
-      <c r="C27" s="4">
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B65" s="6">
         <v>1.5</v>
       </c>
-      <c r="D27" s="4">
-        <v>3</v>
-      </c>
-      <c r="F27" s="4">
-        <v>0</v>
-      </c>
-      <c r="G27">
-        <v>1.7320508075688772</v>
-      </c>
-      <c r="H27">
-        <v>1.7320508075688772</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B28">
-        <v>2</v>
-      </c>
-      <c r="C28">
-        <v>2</v>
-      </c>
-      <c r="D28">
-        <v>2</v>
-      </c>
-      <c r="F28">
-        <v>0.1</v>
-      </c>
-      <c r="G28">
-        <v>1.9052558883257653</v>
-      </c>
-      <c r="H28">
-        <v>1.9423551478291619</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F29">
-        <v>0.25</v>
-      </c>
-      <c r="G29">
-        <v>2.1650635094610968</v>
-      </c>
-      <c r="H29">
-        <v>2.2400890074163007</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F30">
-        <v>0.5</v>
-      </c>
-      <c r="G30">
-        <v>2.598076211353316</v>
-      </c>
-      <c r="H30">
-        <v>2.6930777063820206</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F31">
-        <v>0.75</v>
-      </c>
-      <c r="G31">
-        <v>3.0310889132455352</v>
-      </c>
-      <c r="H31">
-        <v>3.0985656578333884</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C32" t="s">
-        <v>6</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32">
-        <v>3.4641016151377544</v>
-      </c>
-      <c r="H32">
-        <v>3.4641016151377544</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
-        <v>7</v>
-      </c>
-      <c r="C33" s="1">
-        <f>SQRT(B27^2+C27^2+D27^2)</f>
-        <v>3.6742346141747673</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>8</v>
-      </c>
-      <c r="C34">
-        <f>SQRT(SQRT(B27^2+C27^2)+D28^2)</f>
-        <v>2.4741302196043851</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>10</v>
-      </c>
-      <c r="C35">
-        <f>SQRT(SQRT(B27^2+C28^2)+D27^2)</f>
-        <v>3.3911649915626341</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
-        <v>11</v>
-      </c>
-      <c r="C36">
-        <f>SQRT(SQRT(B27^2+C28^2)+D28^2)</f>
-        <v>2.5495097567963922</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
-        <v>12</v>
-      </c>
-      <c r="C37">
-        <f>SQRT(SQRT(B28^2+C27^2)+D27^2)</f>
-        <v>3.3911649915626341</v>
-      </c>
-    </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
-        <v>13</v>
-      </c>
-      <c r="C38">
-        <f>SQRT(SQRT(B28^2+C27^2)+D28^2)</f>
-        <v>2.5495097567963922</v>
-      </c>
-    </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C39">
-        <f>SQRT(SQRT(B28^2+C28^2)+D27^2)</f>
-        <v>3.4392480464116266</v>
-      </c>
-    </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
-        <v>9</v>
-      </c>
-      <c r="C40">
-        <f>SQRT(SQRT(B28^2+C28^2)+D28^2)</f>
-        <v>2.6131259297527532</v>
+      <c r="B66" s="6">
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>
@@ -1618,37 +2189,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:P66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I20" workbookViewId="0">
-      <selection activeCell="P37" sqref="P37"/>
+    <sheetView tabSelected="1" topLeftCell="F22" workbookViewId="0">
+      <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F3" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="G3" s="11"/>
-      <c r="H3" s="5"/>
+      <c r="F3" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" s="12"/>
+      <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B4" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>53</v>
+      <c r="B4" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="C5">
         <f>B15</f>
         <v>3.5</v>
       </c>
       <c r="F5" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="G5">
         <f>B16</f>
@@ -1657,14 +2228,14 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C6" s="2">
+        <v>43</v>
+      </c>
+      <c r="C6" s="1">
         <f>B23</f>
         <v>4</v>
       </c>
       <c r="F6" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="G6">
         <f>B20</f>
@@ -1673,14 +2244,14 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C7" s="2">
+        <v>44</v>
+      </c>
+      <c r="C7" s="1">
         <f>B27</f>
         <v>4.5</v>
       </c>
       <c r="F7" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="G7">
         <f>B17</f>
@@ -1689,14 +2260,14 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C8" s="2">
+        <v>45</v>
+      </c>
+      <c r="C8" s="1">
         <f>B31</f>
         <v>5</v>
       </c>
       <c r="F8" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="G8">
         <f>B21</f>
@@ -1705,14 +2276,14 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>62</v>
-      </c>
-      <c r="C9" s="2">
+        <v>46</v>
+      </c>
+      <c r="C9" s="1">
         <f>B35</f>
         <v>5.5</v>
       </c>
       <c r="F9" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="G9">
         <f>B18</f>
@@ -1721,14 +2292,14 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>63</v>
-      </c>
-      <c r="C10" s="2">
+        <v>47</v>
+      </c>
+      <c r="C10" s="1">
         <f>B39</f>
         <v>6</v>
       </c>
       <c r="F10" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="G10">
         <f>B22</f>
@@ -1737,298 +2308,298 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>64</v>
-      </c>
-      <c r="C11" s="2">
+        <v>48</v>
+      </c>
+      <c r="C11" s="1">
         <f>B43</f>
         <v>6.5</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C12">
         <f>B19</f>
         <v>7</v>
       </c>
       <c r="F12" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="G12">
-        <f>$G6-K34</f>
+        <f t="shared" ref="G12:L12" si="0">$G6-K34</f>
         <v>1</v>
       </c>
       <c r="H12">
-        <f>$G6-L34</f>
+        <f t="shared" si="0"/>
         <v>0.89999999999999991</v>
       </c>
       <c r="I12">
-        <f>$G6-M34</f>
+        <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
       <c r="J12">
-        <f>$G6-N34</f>
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
       <c r="K12">
-        <f>$G6-O34</f>
+        <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
       <c r="L12">
-        <f>$G6-P34</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F13" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="G13">
-        <f>K34-$G5</f>
+        <f t="shared" ref="G13:L13" si="1">K34-$G5</f>
         <v>0</v>
       </c>
       <c r="H13">
-        <f>L34-$G5</f>
+        <f t="shared" si="1"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="I13">
-        <f>M34-$G5</f>
+        <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
       <c r="J13">
-        <f>N34-$G5</f>
+        <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
       <c r="K13">
-        <f>O34-$G5</f>
+        <f t="shared" si="1"/>
         <v>0.75</v>
       </c>
       <c r="L13">
-        <f>P34-$G5</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F14" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="G14">
-        <f>$G8-K35</f>
+        <f t="shared" ref="G14:L14" si="2">$G8-K35</f>
         <v>1</v>
       </c>
       <c r="H14">
-        <f>$G8-L35</f>
+        <f t="shared" si="2"/>
         <v>0.89999999999999991</v>
       </c>
       <c r="I14">
-        <f>$G8-M35</f>
+        <f t="shared" si="2"/>
         <v>0.75</v>
       </c>
       <c r="J14">
-        <f>$G8-N35</f>
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
       <c r="K14">
-        <f>$G8-O35</f>
+        <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
       <c r="L14">
-        <f>$G8-P35</f>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B15" s="8">
+      <c r="A15" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="6">
         <f>$D$16*B16+$D$17*B17+$D$18*B18</f>
         <v>3.5</v>
       </c>
       <c r="F15" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15">
+        <f t="shared" ref="G15:L15" si="3">K35-$G7</f>
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="3"/>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="3"/>
+        <v>0.25</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="3"/>
+        <v>0.75</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="6">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="5">
+        <f>2</f>
+        <v>2</v>
+      </c>
+      <c r="F16" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16">
+        <f t="shared" ref="G16:L16" si="4">$G10-K36</f>
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="4"/>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="4"/>
+        <v>0.75</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="4"/>
+        <v>0.25</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="6">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="5">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="F17" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17">
+        <f t="shared" ref="G17:L17" si="5">K36-$G9</f>
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="5"/>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="5"/>
+        <v>0.25</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="5"/>
+        <v>0.75</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="6">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="C18" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="G15">
-        <f>K35-$G7</f>
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <f>L35-$G7</f>
-        <v>0.10000000000000009</v>
-      </c>
-      <c r="I15">
-        <f>M35-$G7</f>
-        <v>0.25</v>
-      </c>
-      <c r="J15">
-        <f>N35-$G7</f>
-        <v>0.5</v>
-      </c>
-      <c r="K15">
-        <f>O35-$G7</f>
-        <v>0.75</v>
-      </c>
-      <c r="L15">
-        <f>P35-$G7</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="8">
-        <f>1</f>
-        <v>1</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D16" s="7">
-        <f>2</f>
-        <v>2</v>
-      </c>
-      <c r="F16" t="s">
-        <v>41</v>
-      </c>
-      <c r="G16">
-        <f>$G10-K36</f>
-        <v>1</v>
-      </c>
-      <c r="H16">
-        <f>$G10-L36</f>
-        <v>0.89999999999999991</v>
-      </c>
-      <c r="I16">
-        <f>$G10-M36</f>
-        <v>0.75</v>
-      </c>
-      <c r="J16">
-        <f>$G10-N36</f>
-        <v>0.5</v>
-      </c>
-      <c r="K16">
-        <f>$G10-O36</f>
-        <v>0.25</v>
-      </c>
-      <c r="L16">
-        <f>$G10-P36</f>
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" s="8">
-        <f>1</f>
-        <v>1</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D17" s="7">
-        <f>1</f>
-        <v>1</v>
-      </c>
-      <c r="F17" t="s">
-        <v>42</v>
-      </c>
-      <c r="G17">
-        <f>K36-$G9</f>
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <f>L36-$G9</f>
-        <v>0.10000000000000009</v>
-      </c>
-      <c r="I17">
-        <f>M36-$G9</f>
-        <v>0.25</v>
-      </c>
-      <c r="J17">
-        <f>N36-$G9</f>
-        <v>0.5</v>
-      </c>
-      <c r="K17">
-        <f>O36-$G9</f>
-        <v>0.75</v>
-      </c>
-      <c r="L17">
-        <f>P36-$G9</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" s="8">
-        <f>1</f>
-        <v>1</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="D18" s="7">
+      <c r="D18" s="5">
         <f>0.5</f>
         <v>0.5</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B19" s="8">
+      <c r="A19" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="6">
         <f>$D$16*B20+$D$17*B21+$D$18*B22</f>
         <v>7</v>
       </c>
       <c r="F19" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="G19">
-        <f>($G6-$G5)*($G8-$G7)*($G10-$G9)</f>
+        <f t="shared" ref="G19:L19" si="6">($G6-$G5)*($G8-$G7)*($G10-$G9)</f>
         <v>1</v>
       </c>
       <c r="H19">
-        <f>($G6-$G5)*($G8-$G7)*($G10-$G9)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="I19">
-        <f>($G6-$G5)*($G8-$G7)*($G10-$G9)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J19">
-        <f>($G6-$G5)*($G8-$G7)*($G10-$G9)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="K19">
-        <f>($G6-$G5)*($G8-$G7)*($G10-$G9)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="L19">
-        <f>($G6-$G5)*($G8-$G7)*($G10-$G9)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20" s="8">
+      <c r="A20" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21" s="8">
+      <c r="A21" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="6">
         <v>2</v>
       </c>
       <c r="F21" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="G21">
         <f>$G12*$G14*$G17/$G19</f>
@@ -2052,18 +2623,18 @@
       </c>
       <c r="L21">
         <f>L12*L14*L17/L19</f>
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B22" s="8">
+      <c r="A22" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="6">
         <v>2</v>
       </c>
       <c r="F22" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="G22">
         <f>$G12*$G15*$G17/$G19</f>
@@ -2091,15 +2662,15 @@
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B23" s="8">
+      <c r="A23" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="6">
         <f>$D$16*B24+$D$17*B25+$D$18*B26</f>
         <v>4</v>
       </c>
       <c r="F23" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="G23">
         <f>$G13*$G14*$G17/$G19</f>
@@ -2127,15 +2698,15 @@
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" s="8">
+      <c r="A24" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" s="6">
         <f>B16</f>
         <v>1</v>
       </c>
       <c r="F24" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="G24">
         <f>$G13*$G15*$G17/$G19</f>
@@ -2159,19 +2730,19 @@
       </c>
       <c r="L24">
         <f>L13*L15*L17/L19</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25" s="8">
+      <c r="A25" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" s="6">
         <f>B17</f>
         <v>1</v>
       </c>
       <c r="F25" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="G25">
         <f>$G12*$G14*$G16/$G19</f>
@@ -2195,19 +2766,19 @@
       </c>
       <c r="L25">
         <f>L12*L14*L16/L19</f>
-        <v>-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="6">
+        <f>B22</f>
+        <v>2</v>
+      </c>
+      <c r="F26" t="s">
         <v>33</v>
-      </c>
-      <c r="B26" s="8">
-        <f>B22</f>
-        <v>2</v>
-      </c>
-      <c r="F26" t="s">
-        <v>49</v>
       </c>
       <c r="G26">
         <f>$G12*$G15*$G16/$G19</f>
@@ -2235,15 +2806,15 @@
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B27" s="8">
+      <c r="A27" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" s="6">
         <f>$D$16*B28+$D$17*B29+$D$18*B30</f>
         <v>4.5</v>
       </c>
       <c r="F27" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="G27">
         <f>$G13*$G14*$G16/$G19</f>
@@ -2271,15 +2842,15 @@
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" s="8">
+      <c r="A28" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" s="6">
         <f>B16</f>
         <v>1</v>
       </c>
       <c r="F28" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="G28">
         <f>$G13*$G15*$G16/$G19</f>
@@ -2307,84 +2878,84 @@
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B29" s="8">
+      <c r="A29" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29" s="6">
         <f>B21</f>
         <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B30" s="8">
+      <c r="A30" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30" s="6">
         <f>B18</f>
         <v>1</v>
       </c>
-      <c r="F30" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="G30" s="6">
-        <f>G21*$C6+G22*$C8+G23*$C10+G24*$C12+G25*$C5+G26*$C7+G27*$C9+G28*$C11</f>
+      <c r="F30" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G30" s="4">
+        <f t="shared" ref="G30:L30" si="7">G21*$C6+G22*$C8+G23*$C10+G24*$C12+G25*$C5+G26*$C7+G27*$C9+G28*$C11</f>
         <v>3.5</v>
       </c>
-      <c r="H30" s="6">
-        <f>H21*$C6+H22*$C8+H23*$C10+H24*$C12+H25*$C5+H26*$C7+H27*$C9+H28*$C11</f>
+      <c r="H30" s="4">
+        <f t="shared" si="7"/>
         <v>3.8500000000000005</v>
       </c>
-      <c r="I30" s="6">
-        <f>I21*$C6+I22*$C8+I23*$C10+I24*$C12+I25*$C5+I26*$C7+I27*$C9+I28*$C11</f>
+      <c r="I30" s="4">
+        <f t="shared" si="7"/>
         <v>4.375</v>
       </c>
-      <c r="J30" s="6">
-        <f>J21*$C6+J22*$C8+J23*$C10+J24*$C12+J25*$C5+J26*$C7+J27*$C9+J28*$C11</f>
+      <c r="J30" s="4">
+        <f t="shared" si="7"/>
         <v>5.25</v>
       </c>
-      <c r="K30" s="6">
-        <f>K21*$C6+K22*$C8+K23*$C10+K24*$C12+K25*$C5+K26*$C7+K27*$C9+K28*$C11</f>
+      <c r="K30" s="4">
+        <f t="shared" si="7"/>
         <v>6.125</v>
       </c>
-      <c r="L30" s="14">
-        <f>L21*$C6+L22*$C8+L23*$C10+L24*$C12+L25*$C5+L26*$C7+L27*$C9+L28*$C11</f>
-        <v>6.5</v>
+      <c r="L30" s="11">
+        <f t="shared" si="7"/>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B31" s="8">
+      <c r="A31" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" s="6">
         <f>$D$16*B32+$D$17*B33+$D$18*B34</f>
         <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B32" s="8">
+      <c r="A32" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" s="6">
         <f>B16</f>
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A33" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B33" s="8">
+      <c r="A33" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B33" s="6">
         <f>B21</f>
         <v>2</v>
       </c>
       <c r="F33" t="s">
-        <v>67</v>
-      </c>
-      <c r="G33" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="H33" s="12" t="s">
-        <v>27</v>
+        <v>51</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H33" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="K33">
         <v>1</v>
@@ -2406,10 +2977,10 @@
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A34" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B34" s="8">
+      <c r="A34" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B34" s="6">
         <f>B22</f>
         <v>2</v>
       </c>
@@ -2425,7 +2996,7 @@
         <v>3.5</v>
       </c>
       <c r="J34" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="K34">
         <v>1</v>
@@ -2446,15 +3017,15 @@
         <f>K34+0.75</f>
         <v>1.75</v>
       </c>
-      <c r="P34" s="3">
-        <v>1</v>
+      <c r="P34" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A35" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B35" s="8">
+      <c r="A35" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" s="6">
         <f>$D$16*B36+$D$17*B37+$D$18*B38</f>
         <v>5.5</v>
       </c>
@@ -2470,36 +3041,36 @@
         <v>3.8500000000000005</v>
       </c>
       <c r="J35" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="K35">
         <v>1</v>
       </c>
       <c r="L35">
-        <f t="shared" ref="L35:L36" si="0">K35+0.1</f>
+        <f t="shared" ref="L35:L36" si="8">K35+0.1</f>
         <v>1.1000000000000001</v>
       </c>
       <c r="M35">
-        <f t="shared" ref="M35:M36" si="1">K35+0.25</f>
+        <f t="shared" ref="M35:M36" si="9">K35+0.25</f>
         <v>1.25</v>
       </c>
       <c r="N35">
-        <f t="shared" ref="N35:N36" si="2">K35+0.5</f>
+        <f t="shared" ref="N35:N36" si="10">K35+0.5</f>
         <v>1.5</v>
       </c>
       <c r="O35">
-        <f t="shared" ref="O35:O36" si="3">K35+0.75</f>
+        <f t="shared" ref="O35:O36" si="11">K35+0.75</f>
         <v>1.75</v>
       </c>
-      <c r="P35" s="3">
-        <v>1</v>
+      <c r="P35" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A36" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B36" s="8">
+      <c r="A36" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36" s="6">
         <f>B20</f>
         <v>2</v>
       </c>
@@ -2515,36 +3086,36 @@
         <v>4.375</v>
       </c>
       <c r="J36" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="K36">
         <v>1</v>
       </c>
       <c r="L36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="M36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>1.25</v>
       </c>
       <c r="N36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>1.5</v>
       </c>
       <c r="O36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>1.75</v>
       </c>
-      <c r="P36" s="3">
-        <v>7</v>
+      <c r="P36" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A37" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B37" s="8">
+      <c r="A37" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B37" s="6">
         <f>B17</f>
         <v>1</v>
       </c>
@@ -2561,10 +3132,10 @@
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A38" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B38" s="8">
+      <c r="A38" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B38" s="6">
         <f>B18</f>
         <v>1</v>
       </c>
@@ -2579,19 +3150,19 @@
         <f>K30</f>
         <v>6.125</v>
       </c>
-      <c r="K38" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="L38" s="13">
+      <c r="K38" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="L38" s="10">
         <f>$D$16*L39+$D$17*L40+$D$18*L41</f>
-        <v>6.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A39" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B39" s="8">
+      <c r="A39" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39" s="6">
         <f>$D$16*B40+$D$17*B41+$D$18*B42</f>
         <v>6</v>
       </c>
@@ -2604,258 +3175,258 @@
       </c>
       <c r="H39">
         <f>L30</f>
-        <v>6.5</v>
-      </c>
-      <c r="K39" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="L39" s="8">
+        <v>7</v>
+      </c>
+      <c r="K39" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="L39" s="6">
         <f>P34</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A40" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B40" s="8">
+      <c r="A40" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B40" s="6">
         <f>B20</f>
         <v>2</v>
       </c>
-      <c r="K40" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="L40" s="8">
+      <c r="K40" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="L40" s="6">
         <f>P35</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A41" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B41" s="8">
+      <c r="A41" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B41" s="6">
         <f>B17</f>
         <v>1</v>
       </c>
-      <c r="K41" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="L41" s="8">
+      <c r="K41" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L41" s="6">
         <f>P36</f>
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A42" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B42" s="8">
+      <c r="A42" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B42" s="6">
         <f>B22</f>
         <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A43" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B43" s="8">
+      <c r="A43" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B43" s="6">
         <f>$D$16*B44+$D$17*B45+$D$18*B46</f>
         <v>6.5</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A44" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B44" s="8">
+      <c r="A44" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B44" s="6">
         <f>B20</f>
         <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A45" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B45" s="8">
+      <c r="A45" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B45" s="6">
         <f>B21</f>
         <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A46" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B46" s="8">
+      <c r="A46" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B46" s="6">
         <f>B18</f>
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A47" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B47" s="8">
+      <c r="A47" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B47" s="6">
         <f>$D$16*B48+$D$17*B49+$D$18*B50</f>
         <v>3.5</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A48" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B48" s="8">
+      <c r="A48" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B48" s="6">
         <f>K34</f>
         <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B49" s="8">
+      <c r="A49" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B49" s="6">
         <f>K35</f>
         <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B50" s="8">
+      <c r="A50" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B50" s="6">
         <f>K36</f>
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B51" s="8">
+      <c r="A51" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B51" s="6">
         <f>$D$16*B52+$D$17*B53+$D$18*B54</f>
         <v>3.8500000000000005</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B52" s="8">
+      <c r="A52" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B52" s="6">
         <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B53" s="8">
+      <c r="A53" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B53" s="6">
         <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B54" s="8">
+      <c r="A54" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B54" s="6">
         <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B55" s="8">
+      <c r="A55" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B55" s="6">
         <f>$D$16*B56+$D$17*B57+$D$18*B58</f>
         <v>4.375</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B56" s="8">
+      <c r="A56" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B56" s="6">
         <v>1.25</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B57" s="8">
+      <c r="A57" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B57" s="6">
         <v>1.25</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B58" s="8">
+      <c r="A58" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B58" s="6">
         <v>1.25</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B59" s="8">
+      <c r="A59" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B59" s="6">
         <f>$D$16*B60+$D$17*B61+$D$18*B62</f>
         <v>6.125</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B60" s="8">
+      <c r="A60" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B60" s="6">
         <v>1.75</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B61" s="8">
+      <c r="A61" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B61" s="6">
         <v>1.75</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B62" s="8">
+      <c r="A62" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B62" s="6">
         <v>1.75</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B63" s="8">
+      <c r="A63" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B63" s="6">
         <f>$D$16*B64+$D$17*B65+$D$18*B66</f>
         <v>5.25</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B64" s="8">
+      <c r="A64" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B64" s="6">
         <v>1.5</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B65" s="8">
+      <c r="A65" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B65" s="6">
         <v>1.5</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B66" s="8">
+      <c r="A66" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B66" s="6">
         <v>1.5</v>
       </c>
     </row>
